--- a/기획서/Hand_Parts_Item Schema.xlsx
+++ b/기획서/Hand_Parts_Item Schema.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\addmin\Desktop\Unity\LCBD\기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FABD208-AE1F-4858-B151-FFC36FB7C038}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8298C2DA-36EE-4799-8B4A-FDC8C97D59D2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="4035" windowWidth="17130" windowHeight="11325" xr2:uid="{1061F941-036B-436D-B22A-8ACF5D2B0CC4}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="20190" windowHeight="11325" xr2:uid="{1061F941-036B-436D-B22A-8ACF5D2B0CC4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Item Table의 Item_number</t>
+    <t>Item Table의 index</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -507,7 +507,7 @@
   <dimension ref="B2:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -621,8 +621,9 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" location="Sheet1!E1" xr:uid="{CF3BA47E-958B-4F1F-A6B7-F4296AACDDB1}"/>
+    <hyperlink ref="F3" r:id="rId1" location="Sheet1!A1" xr:uid="{CF3BA47E-958B-4F1F-A6B7-F4296AACDDB1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>